--- a/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Test1</x:t>
   </x:si>
@@ -26,6 +26,9 @@
     <x:t>String parameter</x:t>
   </x:si>
   <x:si>
+    <x:t>Sheet1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Test1_Child1_F1</x:t>
   </x:si>
   <x:si>
@@ -78,6 +81,9 @@
   </x:si>
   <x:si>
     <x:t>Revenue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sheet2</x:t>
   </x:si>
   <x:si>
     <x:t>Customer 1</x:t>
@@ -473,13 +479,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H9"/>
+  <x:dimension ref="A1:J9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:8">
+    <x:row r="2" spans="1:10">
       <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -489,13 +495,16 @@
       <x:c r="G2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
+      <x:c r="J2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:10">
       <x:c r="C3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
         <x:v>55.76</x:v>
@@ -503,62 +512,65 @@
       <x:c r="H3" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
+      <x:c r="J3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:10">
       <x:c r="C4" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
         <x:v>55.76</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:8">
+    <x:row r="5" spans="1:10">
       <x:c r="C5" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
         <x:v>55.76</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:8">
+    <x:row r="6" spans="1:10">
       <x:c r="B6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1">
         <x:v>43041</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:8">
+    <x:row r="7" spans="1:10">
       <x:c r="B7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1">
         <x:v>43042</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:8">
+    <x:row r="8" spans="1:10">
       <x:c r="C8" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
         <x:v>5500.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:8">
+    <x:row r="9" spans="1:10">
       <x:c r="C9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
         <x:v>5500.8</x:v>
@@ -591,22 +603,25 @@
     </x:row>
     <x:row r="2" spans="1:25">
       <x:c r="B2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:25">
@@ -614,13 +629,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D3" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="2" t="n">
         <x:v>523635.93</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="n">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:25">
@@ -628,7 +646,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="0" t="b">
         <x:v>1</x:v>
@@ -637,7 +655,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s"/>
     </x:row>
@@ -646,10 +664,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G5" s="2" t="n">
         <x:v>100000.5532</x:v>
@@ -667,27 +685,27 @@
     </x:row>
     <x:row r="8" spans="1:25">
       <x:c r="B8" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
         <x:v>5666.58</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
         <x:v>55.78</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:25">
       <x:c r="J10" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
@@ -11,7 +11,6 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="s_Simple" localSheetId="0">Sheet1!$G$2:$H$3</x:definedName>
-    <x:definedName name="d_Child" comment="ParentPanel = d_Parent&#13;&#10;DataSource = m:DataProvider:GetChildIEnumerable(di:Name)">Sheet1!$B$9:$E$9</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>

--- a/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
@@ -123,8 +123,16 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="165" formatCode="#,0.00"/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -159,24 +167,31 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -499,13 +514,14 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
+      <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="n">
+      <x:c r="E3" s="2" t="n">
         <x:v>55.76</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
@@ -516,24 +532,26 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
+      <x:c r="B4" s="0" t="s"/>
       <x:c r="C4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="2" t="n">
         <x:v>55.76</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
+      <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="2" t="n">
         <x:v>55.76</x:v>
       </x:c>
     </x:row>
@@ -554,28 +572,36 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
+      <x:c r="B8" s="0" t="s"/>
       <x:c r="C8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="n">
+      <x:c r="E8" s="2" t="n">
         <x:v>5500.8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
+      <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="n">
+      <x:c r="E9" s="2" t="n">
         <x:v>5500.8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="B3:B5"/>
+    <x:mergeCell ref="E3:E5"/>
+    <x:mergeCell ref="B8:B9"/>
+    <x:mergeCell ref="E8:E9"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -633,7 +659,7 @@
       <x:c r="D3" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G3" s="2" t="n">
+      <x:c r="G3" s="3" t="n">
         <x:v>523635.93</x:v>
       </x:c>
       <x:c r="O3" s="0" t="n">
@@ -656,7 +682,7 @@
       <x:c r="F4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G4" s="2" t="s"/>
+      <x:c r="G4" s="3" t="s"/>
     </x:row>
     <x:row r="5" spans="1:25">
       <x:c r="B5" s="0" t="n">
@@ -668,12 +694,12 @@
       <x:c r="F5" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="n">
+      <x:c r="G5" s="3" t="n">
         <x:v>100000.5532</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:25">
-      <x:c r="G6" s="2" t="n">
+      <x:c r="G6" s="3" t="n">
         <x:v>623636.4832</x:v>
       </x:c>
     </x:row>

--- a/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
@@ -615,7 +615,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Y10"/>
+  <x:dimension ref="A1:Y21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -733,6 +733,56 @@
         <x:v>31</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:25">
+      <x:c r="B12" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:25">
+      <x:c r="B13" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:25">
+      <x:c r="B14" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:25">
+      <x:c r="B15" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:25">
+      <x:c r="B16" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:25">
+      <x:c r="B17" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:25">
+      <x:c r="B18" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:25">
+      <x:c r="B19" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:25">
+      <x:c r="B20" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:25">
+      <x:c r="B21" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
@@ -514,7 +514,6 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -532,28 +531,22 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="B4" s="0" t="s"/>
       <x:c r="C4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E4" s="2" t="n">
-        <x:v>55.76</x:v>
-      </x:c>
+      <x:c r="E4" s="2" t="s"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="n">
-        <x:v>55.76</x:v>
-      </x:c>
+      <x:c r="E5" s="2" t="s"/>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="B6" s="0" t="s">
@@ -572,7 +565,6 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="B8" s="0" t="s"/>
       <x:c r="C8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -584,16 +576,13 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E9" s="2" t="n">
-        <x:v>5500.8</x:v>
-      </x:c>
+      <x:c r="E9" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
@@ -615,18 +604,18 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Y21"/>
+  <x:dimension ref="A1:O21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:25">
+    <x:row r="1" spans="1:15">
       <x:c r="A1" s="0" t="n">
         <x:v>20171025</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:25">
+    <x:row r="2" spans="1:15">
       <x:c r="B2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -649,7 +638,7 @@
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:25">
+    <x:row r="3" spans="1:15">
       <x:c r="B3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
@@ -666,7 +655,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:25">
+    <x:row r="4" spans="1:15">
       <x:c r="B4" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
@@ -684,7 +673,7 @@
       </x:c>
       <x:c r="G4" s="3" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:25">
+    <x:row r="5" spans="1:15">
       <x:c r="B5" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
@@ -698,17 +687,17 @@
         <x:v>100000.5532</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:25">
+    <x:row r="6" spans="1:15">
       <x:c r="G6" s="3" t="n">
         <x:v>623636.4832</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:25">
+    <x:row r="7" spans="1:15">
       <x:c r="A7" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:25">
+    <x:row r="8" spans="1:15">
       <x:c r="B8" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -728,57 +717,57 @@
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:25">
+    <x:row r="10" spans="1:15">
       <x:c r="J10" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:25">
+    <x:row r="12" spans="1:15">
       <x:c r="B12" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:25">
+    <x:row r="13" spans="1:15">
       <x:c r="B13" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:25">
+    <x:row r="14" spans="1:15">
       <x:c r="B14" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:25">
+    <x:row r="15" spans="1:15">
       <x:c r="B15" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:25">
+    <x:row r="16" spans="1:15">
       <x:c r="B16" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:25">
+    <x:row r="17" spans="1:15">
       <x:c r="B17" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:25">
+    <x:row r="18" spans="1:15">
       <x:c r="B18" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:25">
+    <x:row r="19" spans="1:15">
       <x:c r="B19" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:25">
+    <x:row r="20" spans="1:15">
       <x:c r="B20" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:25">
+    <x:row r="21" spans="1:15">
       <x:c r="B21" s="0" t="n">
         <x:v>10</x:v>
       </x:c>

--- a/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DefaultReportGeneratorTest/TestRender.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Test1</x:t>
   </x:si>
@@ -62,6 +62,9 @@
   </x:si>
   <x:si>
     <x:t>Test3_Child2_F2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 20171025 </x:t>
   </x:si>
   <x:si>
     <x:t>Id</x:t>
@@ -121,7 +124,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,0.00"/>
+    <x:numFmt numFmtId="164" formatCode="#,0.00"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -177,7 +180,7 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -194,7 +197,7 @@
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -520,13 +523,13 @@
       <x:c r="D3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="n">
+      <x:c r="E3" s="2">
         <x:v>55.76</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="n">
+      <x:c r="H3" s="0">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="n">
+      <x:c r="J3" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
@@ -537,7 +540,7 @@
       <x:c r="D4" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E4" s="2" t="s"/>
+      <x:c r="E4" s="2"/>
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="C5" s="0" t="s">
@@ -546,7 +549,7 @@
       <x:c r="D5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s"/>
+      <x:c r="E5" s="2"/>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="B6" s="0" t="s">
@@ -571,7 +574,7 @@
       <x:c r="D8" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E8" s="2" t="n">
+      <x:c r="E8" s="2">
         <x:v>5500.8</x:v>
       </x:c>
     </x:row>
@@ -582,7 +585,7 @@
       <x:c r="D9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E9" s="2" t="s"/>
+      <x:c r="E9" s="2"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
@@ -611,84 +614,84 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:15">
-      <x:c r="A1" s="0" t="n">
-        <x:v>20171025</x:v>
+      <x:c r="A1" s="0" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15">
       <x:c r="B2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:15">
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D3" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G3" s="3" t="n">
+      <x:c r="G3" s="3">
         <x:v>523635.93</x:v>
       </x:c>
-      <x:c r="O3" s="0" t="n">
+      <x:c r="O3" s="0">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:15">
-      <x:c r="B4" s="0" t="n">
+      <x:c r="B4" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D4" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G4" s="3" t="s"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="3"/>
     </x:row>
     <x:row r="5" spans="1:15">
-      <x:c r="B5" s="0" t="n">
+      <x:c r="B5" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="3">
         <x:v>100000.5532</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:15">
-      <x:c r="G6" s="3" t="n">
+      <x:c r="G6" s="3">
         <x:v>623636.4832</x:v>
       </x:c>
     </x:row>
@@ -699,76 +702,76 @@
     </x:row>
     <x:row r="8" spans="1:15">
       <x:c r="B8" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C8" s="0">
         <x:v>5666.58</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E8" s="0">
         <x:v>55.78</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:15">
       <x:c r="J10" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:15">
-      <x:c r="B12" s="0" t="n">
+      <x:c r="B12" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:15">
-      <x:c r="B13" s="0" t="n">
+      <x:c r="B13" s="0">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:15">
-      <x:c r="B14" s="0" t="n">
+      <x:c r="B14" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:15">
-      <x:c r="B15" s="0" t="n">
+      <x:c r="B15" s="0">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15">
-      <x:c r="B16" s="0" t="n">
+      <x:c r="B16" s="0">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:15">
-      <x:c r="B17" s="0" t="n">
+      <x:c r="B17" s="0">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:15">
-      <x:c r="B18" s="0" t="n">
+      <x:c r="B18" s="0">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:15">
-      <x:c r="B19" s="0" t="n">
+      <x:c r="B19" s="0">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15">
-      <x:c r="B20" s="0" t="n">
+      <x:c r="B20" s="0">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:15">
-      <x:c r="B21" s="0" t="n">
+      <x:c r="B21" s="0">
         <x:v>10</x:v>
       </x:c>
     </x:row>
